--- a/calculoIII/2025-1/2025-1-calculoIII-A-notas.xlsx
+++ b/calculoIII/2025-1/2025-1-calculoIII-A-notas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t xml:space="preserve">Matrícula</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF</t>
   </si>
   <si>
     <t xml:space="preserve">AMANDA BEATRIZ</t>
@@ -676,7 +679,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1:Q32"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,8 +694,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -736,6 +740,9 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -745,13 +752,13 @@
         <v>20659335778</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>3.1</v>
@@ -767,14 +774,17 @@
         <v>8.9</v>
       </c>
       <c r="K2" s="2" t="n">
-        <f aca="false">SUM(F2:I2)/2</f>
+        <f aca="false">IF(SUM(F2:I2)/2&gt;10,10,SUM(F2:I2)/2)</f>
         <v>6</v>
       </c>
       <c r="L2" s="3" t="str">
         <f aca="false">IF(K2&lt;4,"REP.",IF(K2&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="n">
+        <f aca="false">IF(OR(K2&gt;=6,K2&lt;4),K2,IF(M2&gt;=6,6,(K2+M2)/2))</f>
+        <v>6</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -787,16 +797,16 @@
         <v>17768732707</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>3.8</v>
@@ -809,14 +819,17 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="n">
-        <f aca="false">SUM(F3:I3)/2</f>
+        <f aca="false">IF(SUM(F3:I3)/2&gt;10,10,SUM(F3:I3)/2)</f>
         <v>5.15</v>
       </c>
       <c r="L3" s="3" t="str">
         <f aca="false">IF(K3&lt;4,"REP.",IF(K3&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="n">
+        <f aca="false">IF(OR(K3&gt;=6,K3&lt;4),K3,IF(M3&gt;=6,6,(K3+M3)/2))</f>
+        <v>2.575</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -829,13 +842,13 @@
         <v>17160671708</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -854,14 +867,17 @@
         <v>9.8</v>
       </c>
       <c r="K4" s="2" t="n">
-        <f aca="false">SUM(F4:I4)/2</f>
+        <f aca="false">IF(SUM(F4:I4)/2&gt;10,10,SUM(F4:I4)/2)</f>
         <v>8</v>
       </c>
       <c r="L4" s="3" t="str">
         <f aca="false">IF(K4&lt;4,"REP.",IF(K4&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2" t="n">
+        <f aca="false">IF(OR(K4&gt;=6,K4&lt;4),K4,IF(M4&gt;=6,6,(K4+M4)/2))</f>
+        <v>8</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -874,13 +890,13 @@
         <v>12867997755</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>2.1</v>
@@ -889,21 +905,24 @@
         <v>2.5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="str">
         <f aca="false">IF(I5="ausente",I5,IF(H5="ausente",ROUND(I5*10/7,1),IF(I5+H5&gt;10,10,I5+H5)))</f>
         <v>ausente</v>
       </c>
       <c r="K5" s="2" t="n">
-        <f aca="false">SUM(F5:I5)/2</f>
+        <f aca="false">IF(SUM(F5:I5)/2&gt;10,10,SUM(F5:I5)/2)</f>
         <v>2.3</v>
       </c>
       <c r="L5" s="3" t="str">
         <f aca="false">IF(K5&lt;4,"REP.",IF(K5&lt;6,"VS","APR."))</f>
         <v>REP.</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="n">
+        <f aca="false">IF(OR(K5&gt;=6,K5&lt;4),K5,IF(M5&gt;=6,6,(K5+M5)/2))</f>
+        <v>2.3</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -916,13 +935,13 @@
         <v>16177752748</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -931,25 +950,27 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="n">
-        <f aca="false">ROUND(5/7*10,1)</f>
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">IF(I6="ausente",I6,IF(H6="ausente",ROUND(I6*10/7,1),IF(I6+H6&gt;10,10,I6+H6)))</f>
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
       <c r="K6" s="2" t="n">
-        <f aca="false">SUM(F6:I6)/2</f>
-        <v>7.55</v>
+        <f aca="false">IF(SUM(F6:I6)/2&gt;10,10,SUM(F6:I6)/2)</f>
+        <v>6.5</v>
       </c>
       <c r="L6" s="3" t="str">
         <f aca="false">IF(K6&lt;4,"REP.",IF(K6&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="n">
+        <f aca="false">IF(OR(K6&gt;=6,K6&lt;4),K6,IF(M6&gt;=6,6,(K6+M6)/2))</f>
+        <v>6.5</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -962,13 +983,13 @@
         <v>15503886739</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>1</v>
@@ -987,14 +1008,17 @@
         <v>8.7</v>
       </c>
       <c r="K7" s="2" t="n">
-        <f aca="false">SUM(F7:I7)/2</f>
+        <f aca="false">IF(SUM(F7:I7)/2&gt;10,10,SUM(F7:I7)/2)</f>
         <v>7.8</v>
       </c>
       <c r="L7" s="3" t="str">
         <f aca="false">IF(K7&lt;4,"REP.",IF(K7&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2" t="n">
+        <f aca="false">IF(OR(K7&gt;=6,K7&lt;4),K7,IF(M7&gt;=6,6,(K7+M7)/2))</f>
+        <v>7.8</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1007,13 +1031,13 @@
         <v>14638287727</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -1032,14 +1056,17 @@
         <v>8.7</v>
       </c>
       <c r="K8" s="2" t="n">
-        <f aca="false">SUM(F8:I8)/2</f>
+        <f aca="false">IF(SUM(F8:I8)/2&gt;10,10,SUM(F8:I8)/2)</f>
         <v>8.25</v>
       </c>
       <c r="L8" s="3" t="str">
         <f aca="false">IF(K8&lt;4,"REP.",IF(K8&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2" t="n">
+        <f aca="false">IF(OR(K8&gt;=6,K8&lt;4),K8,IF(M8&gt;=6,6,(K8+M8)/2))</f>
+        <v>8.25</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1052,13 +1079,13 @@
         <v>20641991797</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1</v>
@@ -1077,14 +1104,17 @@
         <v>9.8</v>
       </c>
       <c r="K9" s="2" t="n">
-        <f aca="false">SUM(F9:I9)/2</f>
+        <f aca="false">IF(SUM(F9:I9)/2&gt;10,10,SUM(F9:I9)/2)</f>
         <v>9.4</v>
       </c>
       <c r="L9" s="3" t="str">
         <f aca="false">IF(K9&lt;4,"REP.",IF(K9&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2" t="n">
+        <f aca="false">IF(OR(K9&gt;=6,K9&lt;4),K9,IF(M9&gt;=6,6,(K9+M9)/2))</f>
+        <v>9.4</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1097,13 +1127,13 @@
         <v>21787775704</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1</v>
@@ -1122,14 +1152,17 @@
         <v>9.5</v>
       </c>
       <c r="K10" s="2" t="n">
-        <f aca="false">SUM(F10:I10)/2</f>
+        <f aca="false">IF(SUM(F10:I10)/2&gt;10,10,SUM(F10:I10)/2)</f>
         <v>9.15</v>
       </c>
       <c r="L10" s="3" t="str">
         <f aca="false">IF(K10&lt;4,"REP.",IF(K10&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2" t="n">
+        <f aca="false">IF(OR(K10&gt;=6,K10&lt;4),K10,IF(M10&gt;=6,6,(K10+M10)/2))</f>
+        <v>9.15</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1142,13 +1175,13 @@
         <v>16726513798</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1</v>
@@ -1167,14 +1200,17 @@
         <v>7</v>
       </c>
       <c r="K11" s="2" t="n">
-        <f aca="false">SUM(F11:I11)/2</f>
+        <f aca="false">IF(SUM(F11:I11)/2&gt;10,10,SUM(F11:I11)/2)</f>
         <v>7.2</v>
       </c>
       <c r="L11" s="3" t="str">
         <f aca="false">IF(K11&lt;4,"REP.",IF(K11&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2" t="n">
+        <f aca="false">IF(OR(K11&gt;=6,K11&lt;4),K11,IF(M11&gt;=6,6,(K11+M11)/2))</f>
+        <v>7.2</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1187,13 +1223,13 @@
         <v>18489865728</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1</v>
@@ -1212,14 +1248,17 @@
         <v>9.5</v>
       </c>
       <c r="K12" s="2" t="n">
-        <f aca="false">SUM(F12:I12)/2</f>
+        <f aca="false">IF(SUM(F12:I12)/2&gt;10,10,SUM(F12:I12)/2)</f>
         <v>8.4</v>
       </c>
       <c r="L12" s="3" t="str">
         <f aca="false">IF(K12&lt;4,"REP.",IF(K12&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="n">
+        <f aca="false">IF(OR(K12&gt;=6,K12&lt;4),K12,IF(M12&gt;=6,6,(K12+M12)/2))</f>
+        <v>8.4</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1232,13 +1271,13 @@
         <v>12925899730</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
@@ -1257,14 +1296,17 @@
         <v>9.4</v>
       </c>
       <c r="K13" s="2" t="n">
-        <f aca="false">SUM(F13:I13)/2</f>
+        <f aca="false">IF(SUM(F13:I13)/2&gt;10,10,SUM(F13:I13)/2)</f>
         <v>7.9</v>
       </c>
       <c r="L13" s="3" t="str">
         <f aca="false">IF(K13&lt;4,"REP.",IF(K13&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="n">
+        <f aca="false">IF(OR(K13&gt;=6,K13&lt;4),K13,IF(M13&gt;=6,6,(K13+M13)/2))</f>
+        <v>7.9</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1277,13 +1319,13 @@
         <v>14318250776</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>2.7</v>
@@ -1299,14 +1341,17 @@
         <v>8</v>
       </c>
       <c r="K14" s="2" t="n">
-        <f aca="false">SUM(F14:I14)/2</f>
+        <f aca="false">IF(SUM(F14:I14)/2&gt;10,10,SUM(F14:I14)/2)</f>
         <v>5.35</v>
       </c>
       <c r="L14" s="3" t="str">
         <f aca="false">IF(K14&lt;4,"REP.",IF(K14&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="n">
+        <f aca="false">IF(OR(K14&gt;=6,K14&lt;4),K14,IF(M14&gt;=6,6,(K14+M14)/2))</f>
+        <v>2.675</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1319,33 +1364,39 @@
         <v>17113001793</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="str">
         <f aca="false">IF(I15="ausente",I15,IF(H15="ausente",ROUND(I15*10/7,1),IF(I15+H15&gt;10,10,I15+H15)))</f>
         <v>ausente</v>
       </c>
       <c r="K15" s="2" t="n">
-        <f aca="false">SUM(F15:I15)/2</f>
+        <f aca="false">IF(SUM(F15:I15)/2&gt;10,10,SUM(F15:I15)/2)</f>
         <v>0</v>
       </c>
       <c r="L15" s="3" t="str">
         <f aca="false">IF(K15&lt;4,"REP.",IF(K15&lt;6,"VS","APR."))</f>
         <v>REP.</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="n">
+        <f aca="false">IF(OR(K15&gt;=6,K15&lt;4),K15,IF(M15&gt;=6,6,(K15+M15)/2))</f>
+        <v>0</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1358,13 +1409,13 @@
         <v>16634910707</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>5.7</v>
@@ -1380,14 +1431,17 @@
         <v>9</v>
       </c>
       <c r="K16" s="2" t="n">
-        <f aca="false">SUM(F16:I16)/2</f>
+        <f aca="false">IF(SUM(F16:I16)/2&gt;10,10,SUM(F16:I16)/2)</f>
         <v>7.35</v>
       </c>
       <c r="L16" s="3" t="str">
         <f aca="false">IF(K16&lt;4,"REP.",IF(K16&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2" t="n">
+        <f aca="false">IF(OR(K16&gt;=6,K16&lt;4),K16,IF(M16&gt;=6,6,(K16+M16)/2))</f>
+        <v>7.35</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1400,13 +1454,13 @@
         <v>19452549718</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
@@ -1425,14 +1479,17 @@
         <v>9.2</v>
       </c>
       <c r="K17" s="2" t="n">
-        <f aca="false">SUM(F17:I17)/2</f>
+        <f aca="false">IF(SUM(F17:I17)/2&gt;10,10,SUM(F17:I17)/2)</f>
         <v>6.4</v>
       </c>
       <c r="L17" s="3" t="str">
         <f aca="false">IF(K17&lt;4,"REP.",IF(K17&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2" t="n">
+        <f aca="false">IF(OR(K17&gt;=6,K17&lt;4),K17,IF(M17&gt;=6,6,(K17+M17)/2))</f>
+        <v>6.4</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1445,16 +1502,16 @@
         <v>18029785771</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3.5</v>
@@ -1467,14 +1524,17 @@
         <v>8.2</v>
       </c>
       <c r="K18" s="2" t="n">
-        <f aca="false">SUM(F18:I18)/2</f>
+        <f aca="false">IF(SUM(F18:I18)/2&gt;10,10,SUM(F18:I18)/2)</f>
         <v>4.1</v>
       </c>
       <c r="L18" s="3" t="str">
         <f aca="false">IF(K18&lt;4,"REP.",IF(K18&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2" t="n">
+        <f aca="false">IF(OR(K18&gt;=6,K18&lt;4),K18,IF(M18&gt;=6,6,(K18+M18)/2))</f>
+        <v>2.05</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1487,19 +1547,19 @@
         <v>19141940717</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>2.3</v>
@@ -1512,14 +1572,17 @@
         <v>9.3</v>
       </c>
       <c r="K19" s="2" t="n">
-        <f aca="false">SUM(F19:I19)/2</f>
+        <f aca="false">IF(SUM(F19:I19)/2&gt;10,10,SUM(F19:I19)/2)</f>
         <v>5.15</v>
       </c>
       <c r="L19" s="3" t="str">
         <f aca="false">IF(K19&lt;4,"REP.",IF(K19&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="n">
+        <f aca="false">IF(OR(K19&gt;=6,K19&lt;4),K19,IF(M19&gt;=6,6,(K19+M19)/2))</f>
+        <v>2.575</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1532,13 +1595,13 @@
         <v>20328991759</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -1557,14 +1620,17 @@
         <v>10</v>
       </c>
       <c r="K20" s="2" t="n">
-        <f aca="false">SUM(F20:I20)/2</f>
-        <v>11</v>
+        <f aca="false">IF(SUM(F20:I20)/2&gt;10,10,SUM(F20:I20)/2)</f>
+        <v>10</v>
       </c>
       <c r="L20" s="3" t="str">
         <f aca="false">IF(K20&lt;4,"REP.",IF(K20&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2" t="n">
+        <f aca="false">IF(OR(K20&gt;=6,K20&lt;4),K20,IF(M20&gt;=6,6,(K20+M20)/2))</f>
+        <v>10</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1577,13 +1643,13 @@
         <v>16067776707</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>1</v>
@@ -1602,14 +1668,17 @@
         <v>10</v>
       </c>
       <c r="K21" s="2" t="n">
-        <f aca="false">SUM(F21:I21)/2</f>
+        <f aca="false">IF(SUM(F21:I21)/2&gt;10,10,SUM(F21:I21)/2)</f>
         <v>9.3</v>
       </c>
       <c r="L21" s="3" t="str">
         <f aca="false">IF(K21&lt;4,"REP.",IF(K21&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2" t="n">
+        <f aca="false">IF(OR(K21&gt;=6,K21&lt;4),K21,IF(M21&gt;=6,6,(K21+M21)/2))</f>
+        <v>9.3</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1622,13 +1691,13 @@
         <v>15794854723</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>1</v>
@@ -1647,14 +1716,17 @@
         <v>10</v>
       </c>
       <c r="K22" s="2" t="n">
-        <f aca="false">SUM(F22:I22)/2</f>
+        <f aca="false">IF(SUM(F22:I22)/2&gt;10,10,SUM(F22:I22)/2)</f>
         <v>8.65</v>
       </c>
       <c r="L22" s="3" t="str">
         <f aca="false">IF(K22&lt;4,"REP.",IF(K22&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="n">
+        <f aca="false">IF(OR(K22&gt;=6,K22&lt;4),K22,IF(M22&gt;=6,6,(K22+M22)/2))</f>
+        <v>8.65</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1667,36 +1739,39 @@
         <v>70334032245</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="str">
         <f aca="false">IF(I23="ausente",I23,IF(H23="ausente",ROUND(I23*10/7,1),IF(I23+H23&gt;10,10,I23+H23)))</f>
         <v>ausente</v>
       </c>
       <c r="K23" s="2" t="n">
-        <f aca="false">SUM(F23:I23)/2</f>
+        <f aca="false">IF(SUM(F23:I23)/2&gt;10,10,SUM(F23:I23)/2)</f>
         <v>0</v>
       </c>
       <c r="L23" s="3" t="str">
         <f aca="false">IF(K23&lt;4,"REP.",IF(K23&lt;6,"VS","APR."))</f>
         <v>REP.</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2" t="n">
+        <f aca="false">IF(OR(K23&gt;=6,K23&lt;4),K23,IF(M23&gt;=6,6,(K23+M23)/2))</f>
+        <v>0</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1709,13 +1784,13 @@
         <v>6413413930</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>6.8</v>
@@ -1731,14 +1806,17 @@
         <v>8.3</v>
       </c>
       <c r="K24" s="2" t="n">
-        <f aca="false">SUM(F24:I24)/2</f>
+        <f aca="false">IF(SUM(F24:I24)/2&gt;10,10,SUM(F24:I24)/2)</f>
         <v>7.55</v>
       </c>
       <c r="L24" s="3" t="str">
         <f aca="false">IF(K24&lt;4,"REP.",IF(K24&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2" t="n">
+        <f aca="false">IF(OR(K24&gt;=6,K24&lt;4),K24,IF(M24&gt;=6,6,(K24+M24)/2))</f>
+        <v>7.55</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1751,13 +1829,13 @@
         <v>12659124671</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>1</v>
@@ -1776,14 +1854,17 @@
         <v>9.8</v>
       </c>
       <c r="K25" s="2" t="n">
-        <f aca="false">SUM(F25:I25)/2</f>
+        <f aca="false">IF(SUM(F25:I25)/2&gt;10,10,SUM(F25:I25)/2)</f>
         <v>9.25</v>
       </c>
       <c r="L25" s="3" t="str">
         <f aca="false">IF(K25&lt;4,"REP.",IF(K25&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2" t="n">
+        <f aca="false">IF(OR(K25&gt;=6,K25&lt;4),K25,IF(M25&gt;=6,6,(K25+M25)/2))</f>
+        <v>9.25</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1796,13 +1877,13 @@
         <v>16431997735</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>1</v>
@@ -1821,14 +1902,17 @@
         <v>9.8</v>
       </c>
       <c r="K26" s="2" t="n">
-        <f aca="false">SUM(F26:I26)/2</f>
+        <f aca="false">IF(SUM(F26:I26)/2&gt;10,10,SUM(F26:I26)/2)</f>
         <v>6.85</v>
       </c>
       <c r="L26" s="3" t="str">
         <f aca="false">IF(K26&lt;4,"REP.",IF(K26&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N26" s="2"/>
+      <c r="N26" s="2" t="n">
+        <f aca="false">IF(OR(K26&gt;=6,K26&lt;4),K26,IF(M26&gt;=6,6,(K26+M26)/2))</f>
+        <v>6.85</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1841,13 +1925,13 @@
         <v>19108934711</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -1866,14 +1950,17 @@
         <v>9.5</v>
       </c>
       <c r="K27" s="2" t="n">
-        <f aca="false">SUM(F27:I27)/2</f>
+        <f aca="false">IF(SUM(F27:I27)/2&gt;10,10,SUM(F27:I27)/2)</f>
         <v>8.2</v>
       </c>
       <c r="L27" s="3" t="str">
         <f aca="false">IF(K27&lt;4,"REP.",IF(K27&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2" t="n">
+        <f aca="false">IF(OR(K27&gt;=6,K27&lt;4),K27,IF(M27&gt;=6,6,(K27+M27)/2))</f>
+        <v>8.2</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1886,13 +1973,13 @@
         <v>15649797765</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>1</v>
@@ -1911,14 +1998,17 @@
         <v>9.8</v>
       </c>
       <c r="K28" s="2" t="n">
-        <f aca="false">SUM(F28:I28)/2</f>
+        <f aca="false">IF(SUM(F28:I28)/2&gt;10,10,SUM(F28:I28)/2)</f>
         <v>7.4</v>
       </c>
       <c r="L28" s="3" t="str">
         <f aca="false">IF(K28&lt;4,"REP.",IF(K28&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2" t="n">
+        <f aca="false">IF(OR(K28&gt;=6,K28&lt;4),K28,IF(M28&gt;=6,6,(K28+M28)/2))</f>
+        <v>7.4</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1931,13 +2021,13 @@
         <v>16383888730</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>2.1</v>
@@ -1953,14 +2043,17 @@
         <v>8.3</v>
       </c>
       <c r="K29" s="2" t="n">
-        <f aca="false">SUM(F29:I29)/2</f>
+        <f aca="false">IF(SUM(F29:I29)/2&gt;10,10,SUM(F29:I29)/2)</f>
         <v>5.2</v>
       </c>
       <c r="L29" s="3" t="str">
         <f aca="false">IF(K29&lt;4,"REP.",IF(K29&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N29" s="2"/>
+      <c r="N29" s="2" t="n">
+        <f aca="false">IF(OR(K29&gt;=6,K29&lt;4),K29,IF(M29&gt;=6,6,(K29+M29)/2))</f>
+        <v>2.6</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1973,16 +2066,16 @@
         <v>17536347766</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>3.8</v>
@@ -1995,14 +2088,17 @@
         <v>9.8</v>
       </c>
       <c r="K30" s="2" t="n">
-        <f aca="false">SUM(F30:I30)/2</f>
+        <f aca="false">IF(SUM(F30:I30)/2&gt;10,10,SUM(F30:I30)/2)</f>
         <v>4.9</v>
       </c>
       <c r="L30" s="3" t="str">
         <f aca="false">IF(K30&lt;4,"REP.",IF(K30&lt;6,"VS","APR."))</f>
         <v>VS</v>
       </c>
-      <c r="N30" s="2"/>
+      <c r="N30" s="2" t="n">
+        <f aca="false">IF(OR(K30&gt;=6,K30&lt;4),K30,IF(M30&gt;=6,6,(K30+M30)/2))</f>
+        <v>2.45</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2015,13 +2111,13 @@
         <v>16691161742</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1</v>
@@ -2040,14 +2136,17 @@
         <v>9.3</v>
       </c>
       <c r="K31" s="2" t="n">
-        <f aca="false">SUM(F31:I31)/2</f>
+        <f aca="false">IF(SUM(F31:I31)/2&gt;10,10,SUM(F31:I31)/2)</f>
         <v>9.15</v>
       </c>
       <c r="L31" s="3" t="str">
         <f aca="false">IF(K31&lt;4,"REP.",IF(K31&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N31" s="2"/>
+      <c r="N31" s="2" t="n">
+        <f aca="false">IF(OR(K31&gt;=6,K31&lt;4),K31,IF(M31&gt;=6,6,(K31+M31)/2))</f>
+        <v>9.15</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -2060,13 +2159,13 @@
         <v>19750656709</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1</v>
@@ -2078,21 +2177,24 @@
         <v>3.8</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="str">
         <f aca="false">IF(I32="ausente",I32,IF(H32="ausente",ROUND(I32*10/7,1),IF(I32+H32&gt;10,10,I32+H32)))</f>
         <v>ausente</v>
       </c>
       <c r="K32" s="2" t="n">
-        <f aca="false">SUM(F32:I32)/2</f>
+        <f aca="false">IF(SUM(F32:I32)/2&gt;10,10,SUM(F32:I32)/2)</f>
         <v>6.85</v>
       </c>
       <c r="L32" s="3" t="str">
         <f aca="false">IF(K32&lt;4,"REP.",IF(K32&lt;6,"VS","APR."))</f>
         <v>APR.</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" s="2" t="n">
+        <f aca="false">IF(OR(K32&gt;=6,K32&lt;4),K32,IF(M32&gt;=6,6,(K32+M32)/2))</f>
+        <v>6.85</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>

--- a/calculoIII/2025-1/2025-1-calculoIII-A-notas.xlsx
+++ b/calculoIII/2025-1/2025-1-calculoIII-A-notas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t xml:space="preserve">Matrícula</t>
   </si>
@@ -82,25 +82,25 @@
     <t xml:space="preserve">amauri_junior@id.uff.br</t>
   </si>
   <si>
+    <t xml:space="preserve">ANNA KAROLINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETO DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annaneto@id.uff.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTHUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEIXOTO FIGUEIREDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arthurpf@id.uff.br</t>
+  </si>
+  <si>
     <t xml:space="preserve">ausente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNA KAROLINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETO DOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annaneto@id.uff.br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTHUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEIXOTO FIGUEIREDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arthurpf@id.uff.br</t>
   </si>
   <si>
     <t xml:space="preserve">BRUNO</t>
@@ -679,7 +679,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -805,8 +805,8 @@
       <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
+      <c r="G3" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>3.8</v>
@@ -820,15 +820,15 @@
       </c>
       <c r="K3" s="2" t="n">
         <f aca="false">IF(SUM(F3:I3)/2&gt;10,10,SUM(F3:I3)/2)</f>
-        <v>5.15</v>
+        <v>8.65</v>
       </c>
       <c r="L3" s="3" t="str">
         <f aca="false">IF(K3&lt;4,"REP.",IF(K3&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N3" s="2" t="n">
         <f aca="false">IF(OR(K3&gt;=6,K3&lt;4),K3,IF(M3&gt;=6,6,(K3+M3)/2))</f>
-        <v>2.575</v>
+        <v>8.65</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -842,13 +842,13 @@
         <v>17160671708</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
@@ -890,13 +890,13 @@
         <v>12867997755</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>2.1</v>
@@ -905,7 +905,7 @@
         <v>2.5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J5" s="1" t="str">
         <f aca="false">IF(I5="ausente",I5,IF(H5="ausente",ROUND(I5*10/7,1),IF(I5+H5&gt;10,10,I5+H5)))</f>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>5</v>
@@ -1328,7 +1328,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>2.5</v>
@@ -1342,15 +1342,15 @@
       </c>
       <c r="K14" s="2" t="n">
         <f aca="false">IF(SUM(F14:I14)/2&gt;10,10,SUM(F14:I14)/2)</f>
-        <v>5.35</v>
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="str">
         <f aca="false">IF(K14&lt;4,"REP.",IF(K14&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N14" s="2" t="n">
         <f aca="false">IF(OR(K14&gt;=6,K14&lt;4),K14,IF(M14&gt;=6,6,(K14+M14)/2))</f>
-        <v>2.675</v>
+        <v>8</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1373,13 +1373,13 @@
         <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="str">
         <f aca="false">IF(I15="ausente",I15,IF(H15="ausente",ROUND(I15*10/7,1),IF(I15+H15&gt;10,10,I15+H15)))</f>
@@ -1510,8 +1510,8 @@
       <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
+      <c r="G18" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>3.5</v>
@@ -1525,15 +1525,15 @@
       </c>
       <c r="K18" s="2" t="n">
         <f aca="false">IF(SUM(F18:I18)/2&gt;10,10,SUM(F18:I18)/2)</f>
-        <v>4.1</v>
+        <v>7.1</v>
       </c>
       <c r="L18" s="3" t="str">
         <f aca="false">IF(K18&lt;4,"REP.",IF(K18&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N18" s="2" t="n">
         <f aca="false">IF(OR(K18&gt;=6,K18&lt;4),K18,IF(M18&gt;=6,6,(K18+M18)/2))</f>
-        <v>2.05</v>
+        <v>7.1</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1558,8 +1558,8 @@
       <c r="F19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
+      <c r="G19" s="1" t="n">
+        <v>4.6</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>2.3</v>
@@ -1573,15 +1573,15 @@
       </c>
       <c r="K19" s="2" t="n">
         <f aca="false">IF(SUM(F19:I19)/2&gt;10,10,SUM(F19:I19)/2)</f>
-        <v>5.15</v>
+        <v>7.45</v>
       </c>
       <c r="L19" s="3" t="str">
         <f aca="false">IF(K19&lt;4,"REP.",IF(K19&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N19" s="2" t="n">
         <f aca="false">IF(OR(K19&gt;=6,K19&lt;4),K19,IF(M19&gt;=6,6,(K19+M19)/2))</f>
-        <v>2.575</v>
+        <v>7.45</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1748,13 +1748,13 @@
         <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="str">
         <f aca="false">IF(I23="ausente",I23,IF(H23="ausente",ROUND(I23*10/7,1),IF(I23+H23&gt;10,10,I23+H23)))</f>
@@ -2030,7 +2030,7 @@
         <v>98</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>2.8</v>
@@ -2044,15 +2044,15 @@
       </c>
       <c r="K29" s="2" t="n">
         <f aca="false">IF(SUM(F29:I29)/2&gt;10,10,SUM(F29:I29)/2)</f>
-        <v>5.2</v>
+        <v>7.65</v>
       </c>
       <c r="L29" s="3" t="str">
         <f aca="false">IF(K29&lt;4,"REP.",IF(K29&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N29" s="2" t="n">
         <f aca="false">IF(OR(K29&gt;=6,K29&lt;4),K29,IF(M29&gt;=6,6,(K29+M29)/2))</f>
-        <v>2.6</v>
+        <v>7.65</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2074,8 +2074,8 @@
       <c r="E30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
+      <c r="G30" s="1" t="n">
+        <v>4.6</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>3.8</v>
@@ -2089,15 +2089,15 @@
       </c>
       <c r="K30" s="2" t="n">
         <f aca="false">IF(SUM(F30:I30)/2&gt;10,10,SUM(F30:I30)/2)</f>
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="L30" s="3" t="str">
         <f aca="false">IF(K30&lt;4,"REP.",IF(K30&lt;6,"VS","APR."))</f>
-        <v>VS</v>
+        <v>APR.</v>
       </c>
       <c r="N30" s="2" t="n">
         <f aca="false">IF(OR(K30&gt;=6,K30&lt;4),K30,IF(M30&gt;=6,6,(K30+M30)/2))</f>
-        <v>2.45</v>
+        <v>7.2</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2176,16 +2176,16 @@
       <c r="H32" s="1" t="n">
         <v>3.8</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="1" t="str">
+      <c r="I32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <f aca="false">IF(I32="ausente",I32,IF(H32="ausente",ROUND(I32*10/7,1),IF(I32+H32&gt;10,10,I32+H32)))</f>
-        <v>ausente</v>
+        <v>9.8</v>
       </c>
       <c r="K32" s="2" t="n">
         <f aca="false">IF(SUM(F32:I32)/2&gt;10,10,SUM(F32:I32)/2)</f>
-        <v>6.85</v>
+        <v>9.85</v>
       </c>
       <c r="L32" s="3" t="str">
         <f aca="false">IF(K32&lt;4,"REP.",IF(K32&lt;6,"VS","APR."))</f>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="N32" s="2" t="n">
         <f aca="false">IF(OR(K32&gt;=6,K32&lt;4),K32,IF(M32&gt;=6,6,(K32+M32)/2))</f>
-        <v>6.85</v>
+        <v>9.85</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
